--- a/Kirby-Benchmark.xlsx
+++ b/Kirby-Benchmark.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\kirby-benchmark\site\plugins\kirby-benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD665BE-A1C5-48B3-8D88-417D6BF4EA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E2CB9F-70F1-4C67-B638-E3D79FBCBA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="-120" windowWidth="27180" windowHeight="16440" xr2:uid="{C775CD31-E397-4533-B5B6-80D2D7E197DC}"/>
   </bookViews>
@@ -84,18 +84,6 @@
     <t>Users</t>
   </si>
   <si>
-    <t>Find User by Email</t>
-  </si>
-  <si>
-    <t>Find User by Attribute</t>
-  </si>
-  <si>
-    <t>Not Find User by Email</t>
-  </si>
-  <si>
-    <t>Not Find User by Attribute</t>
-  </si>
-  <si>
     <t>0 Seconds</t>
   </si>
   <si>
@@ -116,13 +104,26 @@
   <si>
     <t>Creation Time (Formated)</t>
   </si>
+  <si>
+    <t>Found User by Email</t>
+  </si>
+  <si>
+    <t>Not Found User by Email</t>
+  </si>
+  <si>
+    <t>Found User by Attribute</t>
+  </si>
+  <si>
+    <t>Not Found User by Attribute</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -161,11 +162,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -189,6 +191,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -207,6 +210,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -225,6 +229,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -243,6 +248,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -380,7 +386,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Find User by Email</c:v>
+                  <c:v>Found User by Email</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -428,7 +434,7 @@
             <c:numRef>
               <c:f>Tabelle1!$D$2:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -464,7 +470,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Not Find User by Email</c:v>
+                  <c:v>Not Found User by Email</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -512,7 +518,7 @@
             <c:numRef>
               <c:f>Tabelle1!$E$2:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -568,7 +574,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Find User by Attribute</c:v>
+                        <c:v>Found User by Attribute</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -682,7 +688,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
@@ -726,7 +732,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Not Find User by Attribute</c:v>
+                        <c:v>Not Found User by Attribute</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -842,7 +848,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
@@ -1055,7 +1061,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1250,7 +1256,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Find User by Attribute</c:v>
+                  <c:v>Found User by Attribute</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1298,7 +1304,7 @@
             <c:numRef>
               <c:f>Tabelle1!$F$2:$F$6</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1334,7 +1340,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Not Find User by Attribute</c:v>
+                  <c:v>Not Found User by Attribute</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1382,7 +1388,7 @@
             <c:numRef>
               <c:f>Tabelle1!$G$2:$G$6</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1438,7 +1444,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Find User by Email</c:v>
+                        <c:v>Found User by Email</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1552,7 +1558,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
@@ -1596,7 +1602,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Not Find User by Email</c:v>
+                        <c:v>Not Found User by Email</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1712,7 +1718,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                       <c:ptCount val="5"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
@@ -1925,7 +1931,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4299,10 +4305,10 @@
     <tableColumn id="1" xr3:uid="{22BD675D-8932-430E-907E-581DA1CE374A}" name="Users"/>
     <tableColumn id="2" xr3:uid="{A3B8A9C5-F46D-4DB0-895A-19BDD20C74B7}" name="Creation Time (Formated)" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{9684808A-8ED3-4BF3-8885-77BBECF791AC}" name="Creation Time (in Seconds)" dataDxfId="4" dataCellStyle="Komma"/>
-    <tableColumn id="4" xr3:uid="{C411D50C-6A72-420D-A50E-FC8994EF6132}" name="Find User by Email" dataDxfId="3" dataCellStyle="Komma"/>
-    <tableColumn id="5" xr3:uid="{BBB0C181-4388-4B8B-9270-28EFEEF98979}" name="Not Find User by Email" dataDxfId="2" dataCellStyle="Komma"/>
-    <tableColumn id="6" xr3:uid="{8AE66A09-5418-46EA-87F0-00E31006EE95}" name="Find User by Attribute" dataDxfId="1" dataCellStyle="Komma"/>
-    <tableColumn id="7" xr3:uid="{61DD5BB4-B5DF-44BF-8851-F785563F5DE0}" name="Not Find User by Attribute" dataDxfId="0" dataCellStyle="Komma"/>
+    <tableColumn id="4" xr3:uid="{C411D50C-6A72-420D-A50E-FC8994EF6132}" name="Found User by Email" dataDxfId="3" dataCellStyle="Komma"/>
+    <tableColumn id="5" xr3:uid="{BBB0C181-4388-4B8B-9270-28EFEEF98979}" name="Not Found User by Email" dataDxfId="2" dataCellStyle="Komma"/>
+    <tableColumn id="6" xr3:uid="{8AE66A09-5418-46EA-87F0-00E31006EE95}" name="Found User by Attribute" dataDxfId="1" dataCellStyle="Komma"/>
+    <tableColumn id="7" xr3:uid="{61DD5BB4-B5DF-44BF-8851-F785563F5DE0}" name="Not Found User by Attribute" dataDxfId="0" dataCellStyle="Komma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4625,7 +4631,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4643,44 +4649,44 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4688,22 +4694,22 @@
       <c r="A3">
         <v>100</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4711,23 +4717,23 @@
       <c r="A4">
         <v>1000</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <f>1*60+25</f>
         <v>85</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4735,23 +4741,23 @@
       <c r="A5">
         <v>10000</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <f>17*60</f>
         <v>1020</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>3</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>4</v>
       </c>
     </row>
@@ -4759,22 +4765,22 @@
       <c r="A6">
         <v>50000</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>6625</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>25</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>35</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>35</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>37</v>
       </c>
     </row>

--- a/Kirby-Benchmark.xlsx
+++ b/Kirby-Benchmark.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\kirby-benchmark\site\plugins\kirby-benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\kirby-benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E2CB9F-70F1-4C67-B638-E3D79FBCBA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672BE185-6DEC-49A7-B5C6-E64622E0019A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="-120" windowWidth="27180" windowHeight="16440" xr2:uid="{C775CD31-E397-4533-B5B6-80D2D7E197DC}"/>
+    <workbookView xWindow="1740" yWindow="-120" windowWidth="27180" windowHeight="16440" activeTab="1" xr2:uid="{C775CD31-E397-4533-B5B6-80D2D7E197DC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="v1" sheetId="1" r:id="rId1"/>
+    <sheet name="v2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,8 +79,53 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={3BA0FFDA-44E8-4FAD-A4CB-50D00842E2C3}</author>
+    <author>tc={F70F21CE-2310-41DC-A238-BAAAE8CF5ACE}</author>
+    <author>tc={E7819267-D37C-4E82-A37C-DBE7824FF42B}</author>
+    <author>tc={3B49B230-403E-437E-81E7-E7DA91BF2D83}</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{3BA0FFDA-44E8-4FAD-A4CB-50D00842E2C3}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    +-1</t>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="1" shapeId="0" xr:uid="{F70F21CE-2310-41DC-A238-BAAAE8CF5ACE}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    +-5</t>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="2" shapeId="0" xr:uid="{E7819267-D37C-4E82-A37C-DBE7824FF42B}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    +-7</t>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="3" shapeId="0" xr:uid="{3B49B230-403E-437E-81E7-E7DA91BF2D83}">
+      <text>
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    +-5</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Users</t>
   </si>
@@ -123,9 +169,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +185,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,14 +218,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
     <dxf>
       <font>
         <b val="0"/>
@@ -191,7 +243,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -210,7 +262,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -229,7 +281,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -248,7 +300,122 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -367,7 +534,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -382,7 +549,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$D$1</c:f>
+              <c:f>'v1'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -408,7 +575,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$2:$A$6</c:f>
+              <c:f>'v1'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -432,7 +599,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$D$2:$D$6</c:f>
+              <c:f>'v1'!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -466,7 +633,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$E$1</c:f>
+              <c:f>'v1'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -492,7 +659,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$2:$A$6</c:f>
+              <c:f>'v1'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -516,7 +683,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$E$2:$E$6</c:f>
+              <c:f>'v1'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -567,7 +734,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$F$1</c15:sqref>
+                          <c15:sqref>'v1'!$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -618,7 +785,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:endParaRPr lang="en-DE"/>
+                      <a:endParaRPr lang="de-DE"/>
                     </a:p>
                   </c:txPr>
                   <c:showLegendKey val="0"/>
@@ -653,7 +820,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$A$2:$A$6</c15:sqref>
+                          <c15:sqref>'v1'!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -683,7 +850,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$F$2:$F$6</c15:sqref>
+                          <c15:sqref>'v1'!$F$2:$F$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -725,7 +892,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$G$1</c15:sqref>
+                          <c15:sqref>'v1'!$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -778,7 +945,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:endParaRPr lang="en-DE"/>
+                      <a:endParaRPr lang="de-DE"/>
                     </a:p>
                   </c:txPr>
                   <c:showLegendKey val="0"/>
@@ -813,7 +980,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$A$2:$A$6</c15:sqref>
+                          <c15:sqref>'v1'!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -843,7 +1010,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$G$2:$G$6</c15:sqref>
+                          <c15:sqref>'v1'!$G$2:$G$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -937,7 +1104,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -975,7 +1142,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1001897728"/>
@@ -1057,7 +1224,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1089,7 +1256,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1001885248"/>
@@ -1131,7 +1298,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1161,7 +1328,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1237,7 +1404,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1252,7 +1419,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$F$1</c:f>
+              <c:f>'v1'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1278,7 +1445,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$2:$A$6</c:f>
+              <c:f>'v1'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1302,7 +1469,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$2:$F$6</c:f>
+              <c:f>'v1'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1336,7 +1503,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$G$1</c:f>
+              <c:f>'v1'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1362,7 +1529,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$2:$A$6</c:f>
+              <c:f>'v1'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1386,7 +1553,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$G$2:$G$6</c:f>
+              <c:f>'v1'!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1437,7 +1604,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$D$1</c15:sqref>
+                          <c15:sqref>'v1'!$D$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1488,7 +1655,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:endParaRPr lang="en-DE"/>
+                      <a:endParaRPr lang="de-DE"/>
                     </a:p>
                   </c:txPr>
                   <c:showLegendKey val="0"/>
@@ -1523,7 +1690,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$A$2:$A$6</c15:sqref>
+                          <c15:sqref>'v1'!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1553,7 +1720,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$D$2:$D$6</c15:sqref>
+                          <c15:sqref>'v1'!$D$2:$D$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1595,7 +1762,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$E$1</c15:sqref>
+                          <c15:sqref>'v1'!$E$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1648,7 +1815,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:endParaRPr lang="en-DE"/>
+                      <a:endParaRPr lang="de-DE"/>
                     </a:p>
                   </c:txPr>
                   <c:showLegendKey val="0"/>
@@ -1683,7 +1850,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$A$2:$A$6</c15:sqref>
+                          <c15:sqref>'v1'!$A$2:$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1713,7 +1880,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Tabelle1!$E$2:$E$6</c15:sqref>
+                          <c15:sqref>'v1'!$E$2:$E$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1807,7 +1974,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1845,7 +2012,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1001897728"/>
@@ -1927,7 +2094,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1959,7 +2126,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1001885248"/>
@@ -2001,7 +2168,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2031,7 +2198,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2107,7 +2274,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2122,7 +2289,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$C$1</c:f>
+              <c:f>'v1'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2148,7 +2315,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$2:$A$6</c:f>
+              <c:f>'v1'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2172,7 +2339,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$6</c:f>
+              <c:f>'v1'!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2272,7 +2439,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2310,7 +2477,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1001897728"/>
@@ -2392,7 +2559,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-DE"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2424,7 +2591,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1001885248"/>
@@ -2466,7 +2633,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2496,7 +2663,2212 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>by Email</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Found User by Email</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'v2'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'v2'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B624-4632-A1A6-425B459E9986}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v2'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not Found User by Email</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'v2'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'v2'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B624-4632-A1A6-425B459E9986}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1001885248"/>
+        <c:axId val="1001897728"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Found User by Attribute</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="de-DE"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$A$2:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$F$2:$F$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>35</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-B624-4632-A1A6-425B459E9986}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Not Found User by Attribute</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="de-DE"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$A$2:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$G$2:$G$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>37</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-B624-4632-A1A6-425B459E9986}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1001885248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Accounts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001897728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1001897728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001885248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>by Attribute</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v2'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Found User by Attribute</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'v2'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'v2'!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB2A-4829-BFA0-7533F5DE4B51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v2'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not Found User by Attribute</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'v2'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'v2'!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EB2A-4829-BFA0-7533F5DE4B51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1001885248"/>
+        <c:axId val="1001897728"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Found User by Email</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="de-DE"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$A$2:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$D$2:$D$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>25</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-EB2A-4829-BFA0-7533F5DE4B51}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Not Found User by Email</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="de-DE"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$A$2:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$E$2:$E$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>35</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-EB2A-4829-BFA0-7533F5DE4B51}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1001885248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Accounts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001897728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1001897728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001885248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Creation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Creation Time (in Seconds)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'v2'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'v2'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-096C-412D-B1FD-0D9CBBD8CEBF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1001885248"/>
+        <c:axId val="1001897728"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1001885248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Accounts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001897728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1001897728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001885248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2627,6 +4999,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3660,6 +6152,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4292,6 +8332,125 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AABC4380-8896-44D0-AF4A-869031B471BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>246975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D651821-3511-4F45-B224-3F6217BBA157}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>989925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3D202DB-CF5D-4625-8BB2-292CA6DC4BE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Manuel Steinberg" id="{D577A26E-4D4D-4557-BA00-D92B14C7D840}" userId="dfe596b3c4836caa" providerId="Windows Live"/>
@@ -4299,16 +8458,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63082603-89A7-4C24-A540-5F2D3EF967CC}" name="Tabelle1" displayName="Tabelle1" ref="A1:G6" totalsRowShown="0" dataDxfId="6" dataCellStyle="Komma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63082603-89A7-4C24-A540-5F2D3EF967CC}" name="Tabelle1" displayName="Tabelle1" ref="A1:G6" totalsRowShown="0" dataDxfId="13" dataCellStyle="Komma">
   <autoFilter ref="A1:G6" xr:uid="{63082603-89A7-4C24-A540-5F2D3EF967CC}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{22BD675D-8932-430E-907E-581DA1CE374A}" name="Users"/>
-    <tableColumn id="2" xr3:uid="{A3B8A9C5-F46D-4DB0-895A-19BDD20C74B7}" name="Creation Time (Formated)" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{9684808A-8ED3-4BF3-8885-77BBECF791AC}" name="Creation Time (in Seconds)" dataDxfId="4" dataCellStyle="Komma"/>
-    <tableColumn id="4" xr3:uid="{C411D50C-6A72-420D-A50E-FC8994EF6132}" name="Found User by Email" dataDxfId="3" dataCellStyle="Komma"/>
-    <tableColumn id="5" xr3:uid="{BBB0C181-4388-4B8B-9270-28EFEEF98979}" name="Not Found User by Email" dataDxfId="2" dataCellStyle="Komma"/>
-    <tableColumn id="6" xr3:uid="{8AE66A09-5418-46EA-87F0-00E31006EE95}" name="Found User by Attribute" dataDxfId="1" dataCellStyle="Komma"/>
-    <tableColumn id="7" xr3:uid="{61DD5BB4-B5DF-44BF-8851-F785563F5DE0}" name="Not Found User by Attribute" dataDxfId="0" dataCellStyle="Komma"/>
+    <tableColumn id="2" xr3:uid="{A3B8A9C5-F46D-4DB0-895A-19BDD20C74B7}" name="Creation Time (Formated)" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{9684808A-8ED3-4BF3-8885-77BBECF791AC}" name="Creation Time (in Seconds)" dataDxfId="11" dataCellStyle="Komma"/>
+    <tableColumn id="4" xr3:uid="{C411D50C-6A72-420D-A50E-FC8994EF6132}" name="Found User by Email" dataDxfId="10" dataCellStyle="Komma"/>
+    <tableColumn id="5" xr3:uid="{BBB0C181-4388-4B8B-9270-28EFEEF98979}" name="Not Found User by Email" dataDxfId="9" dataCellStyle="Komma"/>
+    <tableColumn id="6" xr3:uid="{8AE66A09-5418-46EA-87F0-00E31006EE95}" name="Found User by Attribute" dataDxfId="8" dataCellStyle="Komma"/>
+    <tableColumn id="7" xr3:uid="{61DD5BB4-B5DF-44BF-8851-F785563F5DE0}" name="Not Found User by Attribute" dataDxfId="7" dataCellStyle="Komma"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{31982866-609C-418F-BE83-9D2295DF0027}" name="Tabelle13" displayName="Tabelle13" ref="A1:G6" totalsRowShown="0" dataDxfId="6" dataCellStyle="Komma">
+  <autoFilter ref="A1:G6" xr:uid="{63082603-89A7-4C24-A540-5F2D3EF967CC}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{B67B486E-47FE-4037-A982-E82D21A55279}" name="Users"/>
+    <tableColumn id="2" xr3:uid="{CE31D068-1CBA-4F47-B498-422195A71CE6}" name="Creation Time (Formated)" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{F735A31F-8A19-4DDC-A4E7-45A45AF2E4DA}" name="Creation Time (in Seconds)" dataDxfId="4" dataCellStyle="Komma"/>
+    <tableColumn id="4" xr3:uid="{1B1B22BA-9E25-48F4-A97C-BA66CE15636E}" name="Found User by Email" dataDxfId="3" dataCellStyle="Komma"/>
+    <tableColumn id="5" xr3:uid="{B707F0EF-72EB-4ED9-A6E7-8018FC97FAD6}" name="Not Found User by Email" dataDxfId="2" dataCellStyle="Komma"/>
+    <tableColumn id="6" xr3:uid="{A5457AA8-EA49-473A-B988-844240CD2454}" name="Found User by Attribute" dataDxfId="1" dataCellStyle="Komma"/>
+    <tableColumn id="7" xr3:uid="{7088AB8E-E9FF-4804-A106-B07AEBB95061}" name="Not Found User by Attribute" dataDxfId="0" dataCellStyle="Komma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4626,11 +8801,28 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D5" dT="2021-10-13T09:44:59.60" personId="{D577A26E-4D4D-4557-BA00-D92B14C7D840}" id="{3BA0FFDA-44E8-4FAD-A4CB-50D00842E2C3}">
+    <text>+-1</text>
+  </threadedComment>
+  <threadedComment ref="D6" dT="2021-10-13T09:45:13.79" personId="{D577A26E-4D4D-4557-BA00-D92B14C7D840}" id="{F70F21CE-2310-41DC-A238-BAAAE8CF5ACE}">
+    <text>+-5</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2021-10-13T09:52:38.27" personId="{D577A26E-4D4D-4557-BA00-D92B14C7D840}" id="{E7819267-D37C-4E82-A37C-DBE7824FF42B}">
+    <text>+-7</text>
+  </threadedComment>
+  <threadedComment ref="G6" dT="2021-10-13T11:13:04.53" personId="{D577A26E-4D4D-4557-BA00-D92B14C7D840}" id="{3B49B230-403E-437E-81E7-E7DA91BF2D83}">
+    <text>+-5</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61EA4E3-19A1-4EFB-890B-0B8FA9EAF210}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -4792,4 +8984,172 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D46B839-AEE8-47EA-9044-4A6568A7DBC8}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <f>1*60+25</f>
+        <v>85</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10000</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <f>17*60</f>
+        <v>1020</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50000</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6625</v>
+      </c>
+      <c r="D6" s="3">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3">
+        <v>35</v>
+      </c>
+      <c r="F6" s="3">
+        <v>35</v>
+      </c>
+      <c r="G6" s="3">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Kirby-Benchmark.xlsx
+++ b/Kirby-Benchmark.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\kirby-benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\kirby-benchmark\site\plugins\kirby-benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672BE185-6DEC-49A7-B5C6-E64622E0019A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90058260-EC07-4E6A-A3F7-DD4C882216DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="-120" windowWidth="27180" windowHeight="16440" activeTab="1" xr2:uid="{C775CD31-E397-4533-B5B6-80D2D7E197DC}"/>
   </bookViews>
@@ -88,7 +88,7 @@
     <author>tc={3B49B230-403E-437E-81E7-E7DA91BF2D83}</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{3BA0FFDA-44E8-4FAD-A4CB-50D00842E2C3}">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{3BA0FFDA-44E8-4FAD-A4CB-50D00842E2C3}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -96,7 +96,7 @@
     +-1</t>
       </text>
     </comment>
-    <comment ref="D6" authorId="1" shapeId="0" xr:uid="{F70F21CE-2310-41DC-A238-BAAAE8CF5ACE}">
+    <comment ref="F6" authorId="1" shapeId="0" xr:uid="{F70F21CE-2310-41DC-A238-BAAAE8CF5ACE}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -104,7 +104,7 @@
     +-5</t>
       </text>
     </comment>
-    <comment ref="F6" authorId="2" shapeId="0" xr:uid="{E7819267-D37C-4E82-A37C-DBE7824FF42B}">
+    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{E7819267-D37C-4E82-A37C-DBE7824FF42B}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -112,7 +112,7 @@
     +-7</t>
       </text>
     </comment>
-    <comment ref="G6" authorId="3" shapeId="0" xr:uid="{3B49B230-403E-437E-81E7-E7DA91BF2D83}">
+    <comment ref="I6" authorId="3" shapeId="0" xr:uid="{3B49B230-403E-437E-81E7-E7DA91BF2D83}">
       <text>
         <t>[Kommentarthread]
 Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Users</t>
   </si>
@@ -162,6 +162,21 @@
   <si>
     <t>Not Found User by Attribute</t>
   </si>
+  <si>
+    <t>7 Seconds</t>
+  </si>
+  <si>
+    <t>1 Minute 36 Seconds</t>
+  </si>
+  <si>
+    <t>Found User by UUID</t>
+  </si>
+  <si>
+    <t>Not Found User by UUID</t>
+  </si>
+  <si>
+    <t>20 Minutes 2 Seconds</t>
+  </si>
 </sst>
 </file>
 
@@ -187,10 +202,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -225,7 +240,43 @@
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2754,7 +2805,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'v2'!$D$1</c:f>
+              <c:f>'v2'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2804,7 +2855,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'v2'!$D$2:$D$6</c:f>
+              <c:f>'v2'!$F$2:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2818,10 +2869,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2838,7 +2886,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'v2'!$E$1</c:f>
+              <c:f>'v2'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2888,7 +2936,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'v2'!$E$2:$E$6</c:f>
+              <c:f>'v2'!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2902,10 +2950,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2939,7 +2984,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'v2'!$F$1</c15:sqref>
+                          <c15:sqref>'v2'!$H$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2964,61 +3009,8 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="de-DE"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
+                  <c:delete val="1"/>
+                  <c:extLst/>
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
@@ -3055,7 +3047,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'v2'!$F$2:$F$6</c15:sqref>
+                          <c15:sqref>'v2'!$H$2:$H$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3072,10 +3064,7 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>35</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3094,10 +3083,10 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'v2'!$G$1</c15:sqref>
+                          <c15:sqref>'v2'!$I$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3124,65 +3113,12 @@
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="de-DE"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
+                  <c:delete val="1"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'v2'!$A$2:$A$6</c15:sqref>
@@ -3212,10 +3148,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'v2'!$G$2:$G$6</c15:sqref>
+                          <c15:sqref>'v2'!$I$2:$I$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3232,10 +3168,7 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>37</c:v>
+                        <c:v>5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3624,7 +3557,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'v2'!$F$1</c:f>
+              <c:f>'v2'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3674,7 +3607,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'v2'!$F$2:$F$6</c:f>
+              <c:f>'v2'!$H$2:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3688,10 +3621,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3708,7 +3638,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'v2'!$G$1</c:f>
+              <c:f>'v2'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3758,7 +3688,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'v2'!$G$2:$G$6</c:f>
+              <c:f>'v2'!$I$2:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3772,10 +3702,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3809,7 +3736,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'v2'!$D$1</c15:sqref>
+                          <c15:sqref>'v2'!$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3925,7 +3852,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'v2'!$D$2:$D$6</c15:sqref>
+                          <c15:sqref>'v2'!$F$2:$F$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3942,10 +3869,7 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>25</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3964,10 +3888,10 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'v2'!$E$1</c15:sqref>
+                          <c15:sqref>'v2'!$G$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4052,7 +3976,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'v2'!$A$2:$A$6</c15:sqref>
@@ -4082,10 +4006,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'v2'!$E$2:$E$6</c15:sqref>
+                          <c15:sqref>'v2'!$G$2:$G$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4102,10 +4026,7 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>35</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4552,16 +4473,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1020</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6625</c:v>
+                  <c:v>1202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4879,6 +4797,988 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>by UUID</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Found User by UUID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'v2'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8BA2-4AAB-A2E2-670E0A33CE79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v2'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not Found User by UUID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'v2'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8BA2-4AAB-A2E2-670E0A33CE79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1001885248"/>
+        <c:axId val="1001897728"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Found User by Email</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="00B050"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$A$2:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$F$2:$F$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-8BA2-4AAB-A2E2-670E0A33CE79}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$H$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Found User by Attribute</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$A$2:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$H$2:$H$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-8BA2-4AAB-A2E2-670E0A33CE79}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Not Found User by Email</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$A$2:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$G$2:$G$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-8BA2-4AAB-A2E2-670E0A33CE79}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Not Found User by Attribute</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$A$2:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v2'!$I$2:$I$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-8BA2-4AAB-A2E2-670E0A33CE79}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1001885248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Accounts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001897728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1001897728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001885248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5119,6 +6019,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7700,6 +8640,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8336,14 +9792,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>180300</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -8375,13 +9831,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>246975</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -8419,7 +9875,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>989925</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -8448,6 +9904,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D63B7253-6B42-43FA-B793-E7BE2286D3EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8458,32 +9952,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63082603-89A7-4C24-A540-5F2D3EF967CC}" name="Tabelle1" displayName="Tabelle1" ref="A1:G6" totalsRowShown="0" dataDxfId="13" dataCellStyle="Komma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63082603-89A7-4C24-A540-5F2D3EF967CC}" name="Tabelle1" displayName="Tabelle1" ref="A1:G6" totalsRowShown="0" dataDxfId="15" dataCellStyle="Komma">
   <autoFilter ref="A1:G6" xr:uid="{63082603-89A7-4C24-A540-5F2D3EF967CC}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{22BD675D-8932-430E-907E-581DA1CE374A}" name="Users"/>
-    <tableColumn id="2" xr3:uid="{A3B8A9C5-F46D-4DB0-895A-19BDD20C74B7}" name="Creation Time (Formated)" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{9684808A-8ED3-4BF3-8885-77BBECF791AC}" name="Creation Time (in Seconds)" dataDxfId="11" dataCellStyle="Komma"/>
-    <tableColumn id="4" xr3:uid="{C411D50C-6A72-420D-A50E-FC8994EF6132}" name="Found User by Email" dataDxfId="10" dataCellStyle="Komma"/>
-    <tableColumn id="5" xr3:uid="{BBB0C181-4388-4B8B-9270-28EFEEF98979}" name="Not Found User by Email" dataDxfId="9" dataCellStyle="Komma"/>
-    <tableColumn id="6" xr3:uid="{8AE66A09-5418-46EA-87F0-00E31006EE95}" name="Found User by Attribute" dataDxfId="8" dataCellStyle="Komma"/>
-    <tableColumn id="7" xr3:uid="{61DD5BB4-B5DF-44BF-8851-F785563F5DE0}" name="Not Found User by Attribute" dataDxfId="7" dataCellStyle="Komma"/>
+    <tableColumn id="2" xr3:uid="{A3B8A9C5-F46D-4DB0-895A-19BDD20C74B7}" name="Creation Time (Formated)" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{9684808A-8ED3-4BF3-8885-77BBECF791AC}" name="Creation Time (in Seconds)" dataDxfId="13" dataCellStyle="Komma"/>
+    <tableColumn id="4" xr3:uid="{C411D50C-6A72-420D-A50E-FC8994EF6132}" name="Found User by Email" dataDxfId="12" dataCellStyle="Komma"/>
+    <tableColumn id="5" xr3:uid="{BBB0C181-4388-4B8B-9270-28EFEEF98979}" name="Not Found User by Email" dataDxfId="11" dataCellStyle="Komma"/>
+    <tableColumn id="6" xr3:uid="{8AE66A09-5418-46EA-87F0-00E31006EE95}" name="Found User by Attribute" dataDxfId="10" dataCellStyle="Komma"/>
+    <tableColumn id="7" xr3:uid="{61DD5BB4-B5DF-44BF-8851-F785563F5DE0}" name="Not Found User by Attribute" dataDxfId="9" dataCellStyle="Komma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{31982866-609C-418F-BE83-9D2295DF0027}" name="Tabelle13" displayName="Tabelle13" ref="A1:G6" totalsRowShown="0" dataDxfId="6" dataCellStyle="Komma">
-  <autoFilter ref="A1:G6" xr:uid="{63082603-89A7-4C24-A540-5F2D3EF967CC}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{31982866-609C-418F-BE83-9D2295DF0027}" name="Tabelle13" displayName="Tabelle13" ref="A1:I6" totalsRowShown="0" dataDxfId="8" dataCellStyle="Komma">
+  <autoFilter ref="A1:I6" xr:uid="{63082603-89A7-4C24-A540-5F2D3EF967CC}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B67B486E-47FE-4037-A982-E82D21A55279}" name="Users"/>
-    <tableColumn id="2" xr3:uid="{CE31D068-1CBA-4F47-B498-422195A71CE6}" name="Creation Time (Formated)" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{F735A31F-8A19-4DDC-A4E7-45A45AF2E4DA}" name="Creation Time (in Seconds)" dataDxfId="4" dataCellStyle="Komma"/>
-    <tableColumn id="4" xr3:uid="{1B1B22BA-9E25-48F4-A97C-BA66CE15636E}" name="Found User by Email" dataDxfId="3" dataCellStyle="Komma"/>
-    <tableColumn id="5" xr3:uid="{B707F0EF-72EB-4ED9-A6E7-8018FC97FAD6}" name="Not Found User by Email" dataDxfId="2" dataCellStyle="Komma"/>
-    <tableColumn id="6" xr3:uid="{A5457AA8-EA49-473A-B988-844240CD2454}" name="Found User by Attribute" dataDxfId="1" dataCellStyle="Komma"/>
-    <tableColumn id="7" xr3:uid="{7088AB8E-E9FF-4804-A106-B07AEBB95061}" name="Not Found User by Attribute" dataDxfId="0" dataCellStyle="Komma"/>
+    <tableColumn id="2" xr3:uid="{CE31D068-1CBA-4F47-B498-422195A71CE6}" name="Creation Time (Formated)" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{F735A31F-8A19-4DDC-A4E7-45A45AF2E4DA}" name="Creation Time (in Seconds)" dataDxfId="6" dataCellStyle="Komma"/>
+    <tableColumn id="8" xr3:uid="{FF96CAD5-5BEB-4C5B-899D-99A3C1D56FD1}" name="Found User by UUID" dataDxfId="1" dataCellStyle="Komma"/>
+    <tableColumn id="9" xr3:uid="{2E3385EF-91A0-44BF-A304-7743FD2BB2F7}" name="Not Found User by UUID" dataDxfId="0" dataCellStyle="Komma"/>
+    <tableColumn id="4" xr3:uid="{1B1B22BA-9E25-48F4-A97C-BA66CE15636E}" name="Found User by Email" dataDxfId="5" dataCellStyle="Komma"/>
+    <tableColumn id="5" xr3:uid="{B707F0EF-72EB-4ED9-A6E7-8018FC97FAD6}" name="Not Found User by Email" dataDxfId="4" dataCellStyle="Komma"/>
+    <tableColumn id="6" xr3:uid="{A5457AA8-EA49-473A-B988-844240CD2454}" name="Found User by Attribute" dataDxfId="3" dataCellStyle="Komma"/>
+    <tableColumn id="7" xr3:uid="{7088AB8E-E9FF-4804-A106-B07AEBB95061}" name="Not Found User by Attribute" dataDxfId="2" dataCellStyle="Komma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8803,16 +10299,16 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D5" dT="2021-10-13T09:44:59.60" personId="{D577A26E-4D4D-4557-BA00-D92B14C7D840}" id="{3BA0FFDA-44E8-4FAD-A4CB-50D00842E2C3}">
+  <threadedComment ref="F5" dT="2021-10-13T09:44:59.60" personId="{D577A26E-4D4D-4557-BA00-D92B14C7D840}" id="{3BA0FFDA-44E8-4FAD-A4CB-50D00842E2C3}">
     <text>+-1</text>
   </threadedComment>
-  <threadedComment ref="D6" dT="2021-10-13T09:45:13.79" personId="{D577A26E-4D4D-4557-BA00-D92B14C7D840}" id="{F70F21CE-2310-41DC-A238-BAAAE8CF5ACE}">
+  <threadedComment ref="F6" dT="2021-10-13T09:45:13.79" personId="{D577A26E-4D4D-4557-BA00-D92B14C7D840}" id="{F70F21CE-2310-41DC-A238-BAAAE8CF5ACE}">
     <text>+-5</text>
   </threadedComment>
-  <threadedComment ref="F6" dT="2021-10-13T09:52:38.27" personId="{D577A26E-4D4D-4557-BA00-D92B14C7D840}" id="{E7819267-D37C-4E82-A37C-DBE7824FF42B}">
+  <threadedComment ref="H6" dT="2021-10-13T09:52:38.27" personId="{D577A26E-4D4D-4557-BA00-D92B14C7D840}" id="{E7819267-D37C-4E82-A37C-DBE7824FF42B}">
     <text>+-7</text>
   </threadedComment>
-  <threadedComment ref="G6" dT="2021-10-13T11:13:04.53" personId="{D577A26E-4D4D-4557-BA00-D92B14C7D840}" id="{3B49B230-403E-437E-81E7-E7DA91BF2D83}">
+  <threadedComment ref="I6" dT="2021-10-13T11:13:04.53" personId="{D577A26E-4D4D-4557-BA00-D92B14C7D840}" id="{3B49B230-403E-437E-81E7-E7DA91BF2D83}">
     <text>+-5</text>
   </threadedComment>
 </ThreadedComments>
@@ -8988,23 +10484,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D46B839-AEE8-47EA-9044-4A6568A7DBC8}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9015,19 +10508,25 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9037,10 +10536,10 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="3">
@@ -9049,21 +10548,27 @@
       <c r="G2" s="3">
         <v>0</v>
       </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3" s="3">
@@ -9072,22 +10577,28 @@
       <c r="G3" s="3">
         <v>0</v>
       </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1000</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
-        <f>1*60+25</f>
-        <v>85</v>
+        <f>1*60+36</f>
+        <v>96</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="3">
@@ -9096,55 +10607,64 @@
       <c r="G4" s="3">
         <v>0</v>
       </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10000</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <f>19*60+(39+23)</f>
+        <v>1202</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <f>17*60</f>
-        <v>1020</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="H5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>4</v>
+      <c r="I5" s="3">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50000</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6625</v>
-      </c>
-      <c r="D6" s="3">
-        <v>25</v>
-      </c>
-      <c r="E6" s="3">
-        <v>35</v>
-      </c>
-      <c r="F6" s="3">
-        <v>35</v>
-      </c>
-      <c r="G6" s="3">
-        <v>37</v>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f>+-1</f>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Kirby-Benchmark.xlsx
+++ b/Kirby-Benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\kirby-benchmark\site\plugins\kirby-benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90058260-EC07-4E6A-A3F7-DD4C882216DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB192846-57AE-4613-B4D6-AAB65BF201D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="-120" windowWidth="27180" windowHeight="16440" activeTab="1" xr2:uid="{C775CD31-E397-4533-B5B6-80D2D7E197DC}"/>
+    <workbookView xWindow="1740" yWindow="-120" windowWidth="27180" windowHeight="16440" xr2:uid="{C775CD31-E397-4533-B5B6-80D2D7E197DC}"/>
   </bookViews>
   <sheets>
     <sheet name="v1" sheetId="1" r:id="rId1"/>
@@ -258,24 +258,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -351,7 +334,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3010,7 +3010,6 @@
                 </c:marker>
                 <c:dLbls>
                   <c:delete val="1"/>
-                  <c:extLst/>
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
@@ -3114,7 +3113,6 @@
                 </c:marker>
                 <c:dLbls>
                   <c:delete val="1"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
@@ -5299,7 +5297,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'v2'!$G$1</c15:sqref>
@@ -5331,7 +5329,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'v2'!$A$2:$A$6</c15:sqref>
@@ -5361,7 +5359,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'v2'!$G$2:$G$6</c15:sqref>
@@ -5387,7 +5385,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-8BA2-4AAB-A2E2-670E0A33CE79}"/>
                   </c:ext>
@@ -9974,12 +9972,12 @@
     <tableColumn id="1" xr3:uid="{B67B486E-47FE-4037-A982-E82D21A55279}" name="Users"/>
     <tableColumn id="2" xr3:uid="{CE31D068-1CBA-4F47-B498-422195A71CE6}" name="Creation Time (Formated)" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{F735A31F-8A19-4DDC-A4E7-45A45AF2E4DA}" name="Creation Time (in Seconds)" dataDxfId="6" dataCellStyle="Komma"/>
-    <tableColumn id="8" xr3:uid="{FF96CAD5-5BEB-4C5B-899D-99A3C1D56FD1}" name="Found User by UUID" dataDxfId="1" dataCellStyle="Komma"/>
-    <tableColumn id="9" xr3:uid="{2E3385EF-91A0-44BF-A304-7743FD2BB2F7}" name="Not Found User by UUID" dataDxfId="0" dataCellStyle="Komma"/>
-    <tableColumn id="4" xr3:uid="{1B1B22BA-9E25-48F4-A97C-BA66CE15636E}" name="Found User by Email" dataDxfId="5" dataCellStyle="Komma"/>
-    <tableColumn id="5" xr3:uid="{B707F0EF-72EB-4ED9-A6E7-8018FC97FAD6}" name="Not Found User by Email" dataDxfId="4" dataCellStyle="Komma"/>
-    <tableColumn id="6" xr3:uid="{A5457AA8-EA49-473A-B988-844240CD2454}" name="Found User by Attribute" dataDxfId="3" dataCellStyle="Komma"/>
-    <tableColumn id="7" xr3:uid="{7088AB8E-E9FF-4804-A106-B07AEBB95061}" name="Not Found User by Attribute" dataDxfId="2" dataCellStyle="Komma"/>
+    <tableColumn id="8" xr3:uid="{FF96CAD5-5BEB-4C5B-899D-99A3C1D56FD1}" name="Found User by UUID" dataDxfId="5" dataCellStyle="Komma"/>
+    <tableColumn id="9" xr3:uid="{2E3385EF-91A0-44BF-A304-7743FD2BB2F7}" name="Not Found User by UUID" dataDxfId="4" dataCellStyle="Komma"/>
+    <tableColumn id="4" xr3:uid="{1B1B22BA-9E25-48F4-A97C-BA66CE15636E}" name="Found User by Email" dataDxfId="3" dataCellStyle="Komma"/>
+    <tableColumn id="5" xr3:uid="{B707F0EF-72EB-4ED9-A6E7-8018FC97FAD6}" name="Not Found User by Email" dataDxfId="2" dataCellStyle="Komma"/>
+    <tableColumn id="6" xr3:uid="{A5457AA8-EA49-473A-B988-844240CD2454}" name="Found User by Attribute" dataDxfId="1" dataCellStyle="Komma"/>
+    <tableColumn id="7" xr3:uid="{7088AB8E-E9FF-4804-A106-B07AEBB95061}" name="Not Found User by Attribute" dataDxfId="0" dataCellStyle="Komma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10318,8 +10316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61EA4E3-19A1-4EFB-890B-0B8FA9EAF210}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10486,7 +10484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D46B839-AEE8-47EA-9044-4A6568A7DBC8}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>

--- a/Kirby-Benchmark.xlsx
+++ b/Kirby-Benchmark.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\kirby-benchmark\site\plugins\kirby-benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\kirby-benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB192846-57AE-4613-B4D6-AAB65BF201D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00A41DE-F50F-4A0D-B815-13946B68400F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="-120" windowWidth="27180" windowHeight="16440" xr2:uid="{C775CD31-E397-4533-B5B6-80D2D7E197DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{C775CD31-E397-4533-B5B6-80D2D7E197DC}"/>
   </bookViews>
   <sheets>
     <sheet name="v1" sheetId="1" r:id="rId1"/>
     <sheet name="v2" sheetId="2" r:id="rId2"/>
+    <sheet name="v3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,33 +46,33 @@
   <commentList>
     <comment ref="D5" authorId="0" shapeId="0" xr:uid="{CB25BBFC-3A76-4483-9757-205E7A467D1E}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     +-1</t>
       </text>
     </comment>
     <comment ref="D6" authorId="1" shapeId="0" xr:uid="{F780E6AD-F8D0-4A60-8C56-FEE0FC54BF42}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     +-5</t>
       </text>
     </comment>
     <comment ref="F6" authorId="2" shapeId="0" xr:uid="{ABD3F598-259E-4BC8-B8AE-1E243A5FB677}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     +-7</t>
       </text>
     </comment>
     <comment ref="G6" authorId="3" shapeId="0" xr:uid="{5EC0D37C-C584-4863-8F03-3B87C361E9C4}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     +-5</t>
       </text>
     </comment>
@@ -90,33 +91,78 @@
   <commentList>
     <comment ref="F5" authorId="0" shapeId="0" xr:uid="{3BA0FFDA-44E8-4FAD-A4CB-50D00842E2C3}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     +-1</t>
       </text>
     </comment>
     <comment ref="F6" authorId="1" shapeId="0" xr:uid="{F70F21CE-2310-41DC-A238-BAAAE8CF5ACE}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     +-5</t>
       </text>
     </comment>
     <comment ref="H6" authorId="2" shapeId="0" xr:uid="{E7819267-D37C-4E82-A37C-DBE7824FF42B}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     +-7</t>
       </text>
     </comment>
     <comment ref="I6" authorId="3" shapeId="0" xr:uid="{3B49B230-403E-437E-81E7-E7DA91BF2D83}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    +-5</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={B6332ACE-B01F-495D-99C0-777FF5B2A144}</author>
+    <author>tc={D3C522E5-C9F1-4099-99A0-6DF900DEE709}</author>
+    <author>tc={29065DBB-F62C-4D96-8F24-4F30B5D0FAC8}</author>
+    <author>tc={E3F0F892-A52A-4EC9-85A0-9410AA8ADDF5}</author>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{B6332ACE-B01F-495D-99C0-777FF5B2A144}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    +-1</t>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="1" shapeId="0" xr:uid="{D3C522E5-C9F1-4099-99A0-6DF900DEE709}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    +-5</t>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{29065DBB-F62C-4D96-8F24-4F30B5D0FAC8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    +-7</t>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="3" shapeId="0" xr:uid="{E3F0F892-A52A-4EC9-85A0-9410AA8ADDF5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     +-5</t>
       </text>
     </comment>
@@ -125,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>Users</t>
   </si>
@@ -186,7 +232,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +252,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -237,10 +289,161 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -523,7 +726,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -585,7 +788,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -836,7 +1039,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:endParaRPr lang="de-DE"/>
+                      <a:endParaRPr lang="en-US"/>
                     </a:p>
                   </c:txPr>
                   <c:showLegendKey val="0"/>
@@ -996,7 +1199,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:endParaRPr lang="de-DE"/>
+                      <a:endParaRPr lang="en-US"/>
                     </a:p>
                   </c:txPr>
                   <c:showLegendKey val="0"/>
@@ -1155,7 +1358,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1193,7 +1396,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1001897728"/>
@@ -1275,7 +1478,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1307,7 +1510,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1001885248"/>
@@ -1349,7 +1552,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1379,7 +1582,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1390,10 +1593,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1425,7 +1628,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>by Attribute</a:t>
+              <a:t>Creation</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1455,7 +1658,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1466,15 +1669,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'v1'!$F$1</c:f>
+              <c:f>'v3'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Found User by Attribute</c:v>
+                  <c:v>Creation Time (in Seconds)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1482,7 +1685,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1496,7 +1699,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'v1'!$A$2:$A$6</c:f>
+              <c:f>'v3'!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1520,24 +1723,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'v1'!$F$2:$F$6</c:f>
+              <c:f>'v3'!$C$2:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>1202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,91 +1745,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E1A7-46D6-B549-06937B1D9283}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'v1'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Not Found User by Attribute</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'v1'!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'v1'!$G$2:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E1A7-46D6-B549-06937B1D9283}"/>
+              <c16:uniqueId val="{00000000-FE28-4E88-8310-5DC00B07E0A4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1644,328 +1760,7 @@
         <c:smooth val="0"/>
         <c:axId val="1001885248"/>
         <c:axId val="1001897728"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'v1'!$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Found User by Email</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="de-DE"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'v1'!$A$2:$A$6</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>10000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>50000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'v1'!$D$2:$D$6</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>25</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-E1A7-46D6-B549-06937B1D9283}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'v1'!$E$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Not Found User by Email</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="de-DE"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'v1'!$A$2:$A$6</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1000</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>10000</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>50000</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'v1'!$E$2:$E$6</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>35</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-E1A7-46D6-B549-06937B1D9283}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="1001885248"/>
@@ -2025,7 +1820,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2063,7 +1858,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1001897728"/>
@@ -2145,11 +1940,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2177,7 +1972,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1001885248"/>
@@ -2219,7 +2014,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2249,7 +2044,1859 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>by UUID</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v3'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Found User by UUID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'v3'!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-665D-4814-8264-A8BE138157E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v3'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not Found User by UUID</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'v3'!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-665D-4814-8264-A8BE138157E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1001885248"/>
+        <c:axId val="1001897728"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Found User by Email</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="00B050"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$A$2:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$F$2:$F$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-665D-4814-8264-A8BE138157E9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$H$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Found User by Attribute</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$A$2:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$H$2:$H$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-665D-4814-8264-A8BE138157E9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Not Found User by Email</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$A$2:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$G$2:$G$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-665D-4814-8264-A8BE138157E9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Not Found User by Attribute</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$A$2:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$I$2:$I$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-665D-4814-8264-A8BE138157E9}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1001885248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Accounts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001897728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1001897728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001885248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>by Attribute</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v1'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Found User by Attribute</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'v1'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'v1'!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E1A7-46D6-B549-06937B1D9283}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v1'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not Found User by Attribute</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'v1'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'v1'!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E1A7-46D6-B549-06937B1D9283}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1001885248"/>
+        <c:axId val="1001897728"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v1'!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Found User by Email</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v1'!$A$2:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v1'!$D$2:$D$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>25</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-E1A7-46D6-B549-06937B1D9283}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v1'!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Not Found User by Email</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v1'!$A$2:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v1'!$E$2:$E$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>35</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-E1A7-46D6-B549-06937B1D9283}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1001885248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Accounts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001897728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1001897728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001885248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2263,7 +3910,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2325,7 +3972,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2490,7 +4137,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2528,7 +4175,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1001897728"/>
@@ -2610,7 +4257,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2642,7 +4289,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1001885248"/>
@@ -2684,7 +4331,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2714,7 +4361,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2728,7 +4375,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2790,7 +4437,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3240,7 +4887,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3278,7 +4925,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1001897728"/>
@@ -3360,7 +5007,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3392,7 +5039,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1001885248"/>
@@ -3434,7 +5081,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3464,7 +5111,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3478,7 +5125,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3540,7 +5187,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3785,7 +5432,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:endParaRPr lang="de-DE"/>
+                      <a:endParaRPr lang="en-US"/>
                     </a:p>
                   </c:txPr>
                   <c:showLegendKey val="0"/>
@@ -3942,7 +5589,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:endParaRPr lang="de-DE"/>
+                      <a:endParaRPr lang="en-US"/>
                     </a:p>
                   </c:txPr>
                   <c:showLegendKey val="0"/>
@@ -4098,7 +5745,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4136,7 +5783,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1001897728"/>
@@ -4218,7 +5865,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4250,7 +5897,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1001885248"/>
@@ -4292,7 +5939,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4322,7 +5969,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4336,7 +5983,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4398,7 +6045,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4560,7 +6207,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4598,7 +6245,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1001897728"/>
@@ -4680,7 +6327,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4712,7 +6359,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1001885248"/>
@@ -4754,7 +6401,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4784,7 +6431,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4798,7 +6445,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4854,7 +6501,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4912,7 +6559,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5018,7 +6665,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5550,7 +7197,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5585,7 +7232,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1001897728"/>
@@ -5661,7 +7308,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5690,7 +7337,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1001885248"/>
@@ -5729,7 +7376,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5766,7 +7413,1615 @@
           <a:cs typeface="+mn-cs"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>by Email</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v3'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Found User by Email</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'v3'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'v3'!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-47B8-4ECB-9F0E-3AAA169942B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v3'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not Found User by Email</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'v3'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'v3'!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-47B8-4ECB-9F0E-3AAA169942B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1001885248"/>
+        <c:axId val="1001897728"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$H$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Found User by Attribute</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$A$2:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$H$2:$H$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-47B8-4ECB-9F0E-3AAA169942B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Not Found User by Attribute</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$A$2:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$I$2:$I$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-47B8-4ECB-9F0E-3AAA169942B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1001885248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Accounts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001897728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1001897728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001885248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>by Attribute</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v3'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Found User by Attribute</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'v3'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'v3'!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FEE6-49EF-A47F-590294BA96B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'v3'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not Found User by Attribute</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'v3'!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'v3'!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FEE6-49EF-A47F-590294BA96B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1001885248"/>
+        <c:axId val="1001897728"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Found User by Email</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$A$2:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$F$2:$F$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-FEE6-49EF-A47F-590294BA96B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Not Found User by Email</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$A$2:$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>10000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'v3'!$G$2:$G$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-FEE6-49EF-A47F-590294BA96B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1001885248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Accounts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001897728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1001897728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001885248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5778,6 +9033,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6057,6 +9392,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6573,7 +9988,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7089,7 +10504,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7605,7 +11020,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8121,7 +11536,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8637,7 +12052,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9153,7 +12568,2071 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9943,6 +15422,163 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8480C8E-58FE-41C0-B062-17CD9F81973C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32CBA544-CC8A-48B1-B8A4-25C3800700F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D8D890E-9416-4E5D-B3BD-622A2FD01240}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6D837F-0D41-4C1A-848B-6FC6FF41DD27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Manuel Steinberg" id="{D577A26E-4D4D-4557-BA00-D92B14C7D840}" userId="dfe596b3c4836caa" providerId="Windows Live"/>
@@ -9950,43 +15586,61 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63082603-89A7-4C24-A540-5F2D3EF967CC}" name="Tabelle1" displayName="Tabelle1" ref="A1:G6" totalsRowShown="0" dataDxfId="15" dataCellStyle="Komma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63082603-89A7-4C24-A540-5F2D3EF967CC}" name="Tabelle1" displayName="Tabelle1" ref="A1:G6" totalsRowShown="0" dataDxfId="24">
   <autoFilter ref="A1:G6" xr:uid="{63082603-89A7-4C24-A540-5F2D3EF967CC}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{22BD675D-8932-430E-907E-581DA1CE374A}" name="Users"/>
-    <tableColumn id="2" xr3:uid="{A3B8A9C5-F46D-4DB0-895A-19BDD20C74B7}" name="Creation Time (Formated)" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{9684808A-8ED3-4BF3-8885-77BBECF791AC}" name="Creation Time (in Seconds)" dataDxfId="13" dataCellStyle="Komma"/>
-    <tableColumn id="4" xr3:uid="{C411D50C-6A72-420D-A50E-FC8994EF6132}" name="Found User by Email" dataDxfId="12" dataCellStyle="Komma"/>
-    <tableColumn id="5" xr3:uid="{BBB0C181-4388-4B8B-9270-28EFEEF98979}" name="Not Found User by Email" dataDxfId="11" dataCellStyle="Komma"/>
-    <tableColumn id="6" xr3:uid="{8AE66A09-5418-46EA-87F0-00E31006EE95}" name="Found User by Attribute" dataDxfId="10" dataCellStyle="Komma"/>
-    <tableColumn id="7" xr3:uid="{61DD5BB4-B5DF-44BF-8851-F785563F5DE0}" name="Not Found User by Attribute" dataDxfId="9" dataCellStyle="Komma"/>
+    <tableColumn id="2" xr3:uid="{A3B8A9C5-F46D-4DB0-895A-19BDD20C74B7}" name="Creation Time (Formated)" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{9684808A-8ED3-4BF3-8885-77BBECF791AC}" name="Creation Time (in Seconds)" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{C411D50C-6A72-420D-A50E-FC8994EF6132}" name="Found User by Email" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{BBB0C181-4388-4B8B-9270-28EFEEF98979}" name="Not Found User by Email" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{8AE66A09-5418-46EA-87F0-00E31006EE95}" name="Found User by Attribute" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{61DD5BB4-B5DF-44BF-8851-F785563F5DE0}" name="Not Found User by Attribute" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{31982866-609C-418F-BE83-9D2295DF0027}" name="Tabelle13" displayName="Tabelle13" ref="A1:I6" totalsRowShown="0" dataDxfId="8" dataCellStyle="Komma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{31982866-609C-418F-BE83-9D2295DF0027}" name="Tabelle13" displayName="Tabelle13" ref="A1:I6" totalsRowShown="0" dataDxfId="17">
   <autoFilter ref="A1:I6" xr:uid="{63082603-89A7-4C24-A540-5F2D3EF967CC}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B67B486E-47FE-4037-A982-E82D21A55279}" name="Users"/>
-    <tableColumn id="2" xr3:uid="{CE31D068-1CBA-4F47-B498-422195A71CE6}" name="Creation Time (Formated)" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{F735A31F-8A19-4DDC-A4E7-45A45AF2E4DA}" name="Creation Time (in Seconds)" dataDxfId="6" dataCellStyle="Komma"/>
-    <tableColumn id="8" xr3:uid="{FF96CAD5-5BEB-4C5B-899D-99A3C1D56FD1}" name="Found User by UUID" dataDxfId="5" dataCellStyle="Komma"/>
-    <tableColumn id="9" xr3:uid="{2E3385EF-91A0-44BF-A304-7743FD2BB2F7}" name="Not Found User by UUID" dataDxfId="4" dataCellStyle="Komma"/>
-    <tableColumn id="4" xr3:uid="{1B1B22BA-9E25-48F4-A97C-BA66CE15636E}" name="Found User by Email" dataDxfId="3" dataCellStyle="Komma"/>
-    <tableColumn id="5" xr3:uid="{B707F0EF-72EB-4ED9-A6E7-8018FC97FAD6}" name="Not Found User by Email" dataDxfId="2" dataCellStyle="Komma"/>
-    <tableColumn id="6" xr3:uid="{A5457AA8-EA49-473A-B988-844240CD2454}" name="Found User by Attribute" dataDxfId="1" dataCellStyle="Komma"/>
-    <tableColumn id="7" xr3:uid="{7088AB8E-E9FF-4804-A106-B07AEBB95061}" name="Not Found User by Attribute" dataDxfId="0" dataCellStyle="Komma"/>
+    <tableColumn id="2" xr3:uid="{CE31D068-1CBA-4F47-B498-422195A71CE6}" name="Creation Time (Formated)" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{F735A31F-8A19-4DDC-A4E7-45A45AF2E4DA}" name="Creation Time (in Seconds)" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{FF96CAD5-5BEB-4C5B-899D-99A3C1D56FD1}" name="Found User by UUID" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{2E3385EF-91A0-44BF-A304-7743FD2BB2F7}" name="Not Found User by UUID" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{1B1B22BA-9E25-48F4-A97C-BA66CE15636E}" name="Found User by Email" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{B707F0EF-72EB-4ED9-A6E7-8018FC97FAD6}" name="Not Found User by Email" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{A5457AA8-EA49-473A-B988-844240CD2454}" name="Found User by Attribute" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{7088AB8E-E9FF-4804-A106-B07AEBB95061}" name="Not Found User by Attribute" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{58AA20C6-1A37-4B2B-AEC3-A788564BD376}" name="Tabelle134" displayName="Tabelle134" ref="A1:I6" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:I6" xr:uid="{63082603-89A7-4C24-A540-5F2D3EF967CC}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{28ED1572-C04A-4837-B5DD-63B2D9CF00F9}" name="Users"/>
+    <tableColumn id="2" xr3:uid="{FFFB9AF9-F62D-4E7B-95EB-D9248F0E4CEB}" name="Creation Time (Formated)" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{0AA5930A-73DD-4BE8-907C-F398F1E87E69}" name="Creation Time (in Seconds)" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{88510DB9-A533-4DE9-B3D7-A6F31473108D}" name="Found User by UUID" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{404C3949-DDEF-4F9B-A6BA-AF20BF128560}" name="Not Found User by UUID" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{34932757-315C-4E2F-A67B-BEDBFD190A2D}" name="Found User by Email" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{E84EF5E4-CA5A-40D6-A037-5B5B01DA58DC}" name="Not Found User by Email" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{22B1ED76-995D-4F9A-80AC-814C97BC10A6}" name="Found User by Attribute" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{19C946E0-E870-4A8A-AE38-75B83E2B53BD}" name="Not Found User by Attribute" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10024,7 +15678,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -10130,7 +15784,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10272,7 +15926,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10312,15 +15966,35 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F5" dT="2021-10-13T09:44:59.60" personId="{D577A26E-4D4D-4557-BA00-D92B14C7D840}" id="{B6332ACE-B01F-495D-99C0-777FF5B2A144}">
+    <text>+-1</text>
+  </threadedComment>
+  <threadedComment ref="F6" dT="2021-10-13T09:45:13.79" personId="{D577A26E-4D4D-4557-BA00-D92B14C7D840}" id="{D3C522E5-C9F1-4099-99A0-6DF900DEE709}">
+    <text>+-5</text>
+  </threadedComment>
+  <threadedComment ref="H6" dT="2021-10-13T09:52:38.27" personId="{D577A26E-4D4D-4557-BA00-D92B14C7D840}" id="{29065DBB-F62C-4D96-8F24-4F30B5D0FAC8}">
+    <text>+-7</text>
+  </threadedComment>
+  <threadedComment ref="I6" dT="2021-10-13T11:13:04.53" personId="{D577A26E-4D4D-4557-BA00-D92B14C7D840}" id="{E3F0F892-A52A-4EC9-85A0-9410AA8ADDF5}">
+    <text>+-5</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61EA4E3-19A1-4EFB-890B-0B8FA9EAF210}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
@@ -10482,13 +16156,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D46B839-AEE8-47EA-9044-4A6568A7DBC8}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
@@ -10670,4 +16347,195 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA814885-66B8-4093-A6AD-D578FAFAA452}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <f>1*60+36</f>
+        <v>96</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10000</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
+        <f>19*60+(39+23)</f>
+        <v>1202</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50000</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f>+-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>